--- a/data/wahrscheinlichkeit-infizierten-treffen.xlsx
+++ b/data/wahrscheinlichkeit-infizierten-treffen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torben/Hacken/GitHub/COVID-19-Coronavirus-German-Regions/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3FFC3B-59EF-DB49-A46C-6837A2240A65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9691550B-E2E0-4649-B80B-2EF13B128D61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{C6DFBAC9-D116-7144-B347-F5475A202F46}"/>
   </bookViews>
@@ -2097,7 +2097,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{42B4951B-E13B-ED49-9288-60244FBA73AA}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="113" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="116" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2436,8 +2436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032ED81D-E073-8544-855C-BF52006C6C0B}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
